--- a/biology/Médecine/Product_Red/Product_Red.xlsx
+++ b/biology/Médecine/Product_Red/Product_Red.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Product Red[1], stylisé (PRODUCT)RED™ est une marque qui est concédée sous licence à des sociétés partenaires telles que American Express, Apple, Converse, Nike, Motorola, Gap, Emporio Armani, Hallmark, Microsoft et Dell. Il s'agit d'une initiative amorcée par U2, Bono, Bobby Shriver et la dette commerciale du sida en Afrique (DATA) pour amasser de l'argent pour le Fonds mondial de lutte contre le sida, la tuberculose et le paludisme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Product Red, stylisé (PRODUCT)RED™ est une marque qui est concédée sous licence à des sociétés partenaires telles que American Express, Apple, Converse, Nike, Motorola, Gap, Emporio Armani, Hallmark, Microsoft et Dell. Il s'agit d'une initiative amorcée par U2, Bono, Bobby Shriver et la dette commerciale du sida en Afrique (DATA) pour amasser de l'argent pour le Fonds mondial de lutte contre le sida, la tuberculose et le paludisme.
 Chaque entreprise partenaire crée un produit avec le logo (Product) Red. Un pourcentage de leurs propres recettes par le biais du produit qu'ils vendent, est accordé au Fonds mondial.
 « Les chiffres sont édifiants : chaque jour, plus de 5 800 personnes meurent du sida en Afrique et près de 2 000 enfants sont contaminés par le VIH. L'initiative (PRODUCT) RED du Fonds Mondial redistribue jusqu'à 50 % de ses bénéfices bruts à des programmes africains de lutte contre le sida visant à protéger la santé des femmes et des enfants. Depuis sa création, l'initiative (PRODUCT) RED a permis de reverser plus de 11 millions de dollars US au Fonds Mondial. En achetant (PRODUCT) RED, vous contribuez activement à la réussite de ce projet. »
 — Apple, Apple - Ipod - (PRODUCT) RED
@@ -515,10 +527,12 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Products Red sont[2] :
-Aprilia, qui utilisera une livrée (RED) sur les RS-GP pour le Grand Prix moto de la Communauté valence en 2016[3], 2017[4], 2018[5] et 2019[6]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les Products Red sont :
+Aprilia, qui utilisera une livrée (RED) sur les RS-GP pour le Grand Prix moto de la Communauté valence en 2016, 2017, 2018 et 2019
 La marque Beats by Dr. Dre a sorti en édition spéciale le casque (Solo HD) PRODUCT RED et (Solo 2) PRODUCT RED
 American Express a sorti en 2006 au Royaume-Uni une carte de crédit en collaboration avec Product Red qui reverse à chaque paiement 1 % de l'achat à l’association Global Fund
 Gap vend une ligne de vêtements dont les t-shirts sont réalisés en Afrique et à partir de coton africain. Il existe également des bracelets, des colliers, des broches, des bougies. (50 % des recettes vont à Product Red)
